--- a/AD8302 & Test/Data.xlsx
+++ b/AD8302 & Test/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ging\iCloudDrive\Ad8302\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ging\Github\AD8302 &amp; Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD57419C-1945-498C-971C-FA6C756CD1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1C901D-8095-499D-ACAC-EFA916FF74E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{C7AD8FCA-DF9E-4924-AE84-407E8B3A8FA5}"/>
   </bookViews>
@@ -83,13 +83,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2019,6 +2019,123 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>Sheet1!$E$4:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>4.1799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.85E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.81899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.089</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.139</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.298</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.405</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.458</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.671</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.724</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8460000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Sheet1!$D$4:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2130,123 +2247,6 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$4:$E$39</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>4.1799999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.85E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.127</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.23300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.28599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.33900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.39100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.44500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.55500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.60699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.71299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.76600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.81899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.92900000000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0369999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.089</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.139</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.1910000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.2430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.298</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.3520000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.405</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.458</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.5109999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.5640000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.6180000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.671</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.724</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.7769999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.82</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.8460000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2345,10 +2345,10 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2467,7 +2467,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2744,6 +2744,126 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>Sheet1!$E$40:$E$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1.847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.452</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.079</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.80800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.38400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.27900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.22600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Sheet1!$D$40:$D$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2858,126 +2978,6 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$40:$E$76</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>1.847</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8180000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.77</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.718</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.665</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6120000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5589999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.452</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3979999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2909999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2370000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1839999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.131</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.079</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.026</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.91600000000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.86099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.80800000000000005</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.75600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.70299999999999996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.59599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.54200000000000004</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.48799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.439</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.38400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.33100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.27900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.22600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.17399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.121</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.1999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3076,7 +3076,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -3199,7 +3199,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5966,8 +5966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF856868-3B06-482A-BEF7-CD01ED28514A}">
   <dimension ref="B1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X46" sqref="X46"/>
+    <sheetView tabSelected="1" topLeftCell="G41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5978,30 +5978,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6013,7 +6013,7 @@
         <v>1.847</v>
       </c>
       <c r="D4">
-        <f>B41-360</f>
+        <f t="shared" ref="D4:D39" si="0">B41-360</f>
         <v>-175</v>
       </c>
       <c r="E4" s="1">
@@ -6028,7 +6028,7 @@
         <v>1.8180000000000001</v>
       </c>
       <c r="D5">
-        <f>B42-360</f>
+        <f t="shared" si="0"/>
         <v>-170</v>
       </c>
       <c r="E5" s="1">
@@ -6043,7 +6043,7 @@
         <v>1.77</v>
       </c>
       <c r="D6">
-        <f>B43-360</f>
+        <f t="shared" si="0"/>
         <v>-165</v>
       </c>
       <c r="E6" s="1">
@@ -6058,7 +6058,7 @@
         <v>1.718</v>
       </c>
       <c r="D7">
-        <f>B44-360</f>
+        <f t="shared" si="0"/>
         <v>-160</v>
       </c>
       <c r="E7" s="1">
@@ -6073,7 +6073,7 @@
         <v>1.665</v>
       </c>
       <c r="D8">
-        <f>B45-360</f>
+        <f t="shared" si="0"/>
         <v>-155</v>
       </c>
       <c r="E8" s="1">
@@ -6088,7 +6088,7 @@
         <v>1.6120000000000001</v>
       </c>
       <c r="D9">
-        <f>B46-360</f>
+        <f t="shared" si="0"/>
         <v>-150</v>
       </c>
       <c r="E9" s="1">
@@ -6103,7 +6103,7 @@
         <v>1.5589999999999999</v>
       </c>
       <c r="D10">
-        <f>B47-360</f>
+        <f t="shared" si="0"/>
         <v>-145</v>
       </c>
       <c r="E10" s="1">
@@ -6118,7 +6118,7 @@
         <v>1.5049999999999999</v>
       </c>
       <c r="D11">
-        <f>B48-360</f>
+        <f t="shared" si="0"/>
         <v>-140</v>
       </c>
       <c r="E11" s="1">
@@ -6133,7 +6133,7 @@
         <v>1.452</v>
       </c>
       <c r="D12">
-        <f>B49-360</f>
+        <f t="shared" si="0"/>
         <v>-135</v>
       </c>
       <c r="E12" s="1">
@@ -6148,7 +6148,7 @@
         <v>1.3979999999999999</v>
       </c>
       <c r="D13">
-        <f>B50-360</f>
+        <f t="shared" si="0"/>
         <v>-130</v>
       </c>
       <c r="E13" s="1">
@@ -6163,7 +6163,7 @@
         <v>1.3440000000000001</v>
       </c>
       <c r="D14">
-        <f>B51-360</f>
+        <f t="shared" si="0"/>
         <v>-125</v>
       </c>
       <c r="E14" s="1">
@@ -6178,7 +6178,7 @@
         <v>1.2909999999999999</v>
       </c>
       <c r="D15">
-        <f>B52-360</f>
+        <f t="shared" si="0"/>
         <v>-120</v>
       </c>
       <c r="E15" s="1">
@@ -6193,7 +6193,7 @@
         <v>1.2370000000000001</v>
       </c>
       <c r="D16">
-        <f>B53-360</f>
+        <f t="shared" si="0"/>
         <v>-115</v>
       </c>
       <c r="E16" s="1">
@@ -6208,7 +6208,7 @@
         <v>1.1839999999999999</v>
       </c>
       <c r="D17">
-        <f>B54-360</f>
+        <f t="shared" si="0"/>
         <v>-110</v>
       </c>
       <c r="E17" s="1">
@@ -6223,7 +6223,7 @@
         <v>1.131</v>
       </c>
       <c r="D18">
-        <f>B55-360</f>
+        <f t="shared" si="0"/>
         <v>-105</v>
       </c>
       <c r="E18" s="1">
@@ -6238,7 +6238,7 @@
         <v>1.079</v>
       </c>
       <c r="D19">
-        <f>B56-360</f>
+        <f t="shared" si="0"/>
         <v>-100</v>
       </c>
       <c r="E19" s="1">
@@ -6253,7 +6253,7 @@
         <v>1.026</v>
       </c>
       <c r="D20">
-        <f>B57-360</f>
+        <f t="shared" si="0"/>
         <v>-95</v>
       </c>
       <c r="E20" s="1">
@@ -6268,7 +6268,7 @@
         <v>0.97</v>
       </c>
       <c r="D21">
-        <f>B58-360</f>
+        <f t="shared" si="0"/>
         <v>-90</v>
       </c>
       <c r="E21" s="1">
@@ -6283,7 +6283,7 @@
         <v>0.91600000000000004</v>
       </c>
       <c r="D22">
-        <f>B59-360</f>
+        <f t="shared" si="0"/>
         <v>-85</v>
       </c>
       <c r="E22" s="1">
@@ -6298,7 +6298,7 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="D23">
-        <f>B60-360</f>
+        <f t="shared" si="0"/>
         <v>-80</v>
       </c>
       <c r="E23" s="1">
@@ -6313,7 +6313,7 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="D24">
-        <f>B61-360</f>
+        <f t="shared" si="0"/>
         <v>-75</v>
       </c>
       <c r="E24" s="1">
@@ -6328,7 +6328,7 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="D25">
-        <f>B62-360</f>
+        <f t="shared" si="0"/>
         <v>-70</v>
       </c>
       <c r="E25" s="1">
@@ -6343,7 +6343,7 @@
         <v>0.70299999999999996</v>
       </c>
       <c r="D26">
-        <f>B63-360</f>
+        <f t="shared" si="0"/>
         <v>-65</v>
       </c>
       <c r="E26" s="1">
@@ -6358,7 +6358,7 @@
         <v>0.65</v>
       </c>
       <c r="D27">
-        <f>B64-360</f>
+        <f t="shared" si="0"/>
         <v>-60</v>
       </c>
       <c r="E27" s="1">
@@ -6373,7 +6373,7 @@
         <v>0.59599999999999997</v>
       </c>
       <c r="D28">
-        <f>B65-360</f>
+        <f t="shared" si="0"/>
         <v>-55</v>
       </c>
       <c r="E28" s="1">
@@ -6388,7 +6388,7 @@
         <v>0.54200000000000004</v>
       </c>
       <c r="D29">
-        <f>B66-360</f>
+        <f t="shared" si="0"/>
         <v>-50</v>
       </c>
       <c r="E29" s="1">
@@ -6403,7 +6403,7 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="D30">
-        <f>B67-360</f>
+        <f t="shared" si="0"/>
         <v>-45</v>
       </c>
       <c r="E30" s="1">
@@ -6418,7 +6418,7 @@
         <v>0.439</v>
       </c>
       <c r="D31">
-        <f>B68-360</f>
+        <f t="shared" si="0"/>
         <v>-40</v>
       </c>
       <c r="E31" s="1">
@@ -6433,7 +6433,7 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="D32">
-        <f>B69-360</f>
+        <f t="shared" si="0"/>
         <v>-35</v>
       </c>
       <c r="E32" s="1">
@@ -6448,7 +6448,7 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="D33">
-        <f>B70-360</f>
+        <f t="shared" si="0"/>
         <v>-30</v>
       </c>
       <c r="E33" s="1">
@@ -6463,7 +6463,7 @@
         <v>0.27900000000000003</v>
       </c>
       <c r="D34">
-        <f>B71-360</f>
+        <f t="shared" si="0"/>
         <v>-25</v>
       </c>
       <c r="E34" s="1">
@@ -6478,7 +6478,7 @@
         <v>0.22600000000000001</v>
       </c>
       <c r="D35">
-        <f>B72-360</f>
+        <f t="shared" si="0"/>
         <v>-20</v>
       </c>
       <c r="E35" s="1">
@@ -6493,7 +6493,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="D36">
-        <f>B73-360</f>
+        <f t="shared" si="0"/>
         <v>-15</v>
       </c>
       <c r="E36" s="1">
@@ -6508,7 +6508,7 @@
         <v>0.121</v>
       </c>
       <c r="D37">
-        <f>B74-360</f>
+        <f t="shared" si="0"/>
         <v>-10</v>
       </c>
       <c r="E37" s="1">
@@ -6523,7 +6523,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="D38">
-        <f>B75-360</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="E38" s="1">
@@ -6538,7 +6538,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="D39">
-        <f>B76-360</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39" s="1">

--- a/AD8302 & Test/Data.xlsx
+++ b/AD8302 & Test/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ging\Github\AD8302 &amp; Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1C901D-8095-499D-ACAC-EFA916FF74E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB34748-6792-445F-9419-8F2CCB0D8037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{C7AD8FCA-DF9E-4924-AE84-407E8B3A8FA5}"/>
   </bookViews>
@@ -5966,8 +5966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF856868-3B06-482A-BEF7-CD01ED28514A}">
   <dimension ref="B1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" topLeftCell="F41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
